--- a/data_processed/20250723/BTCUSDVOLSURFACE_REGULARIZED_20250723.xlsx
+++ b/data_processed/20250723/BTCUSDVOLSURFACE_REGULARIZED_20250723.xlsx
@@ -9255,7 +9255,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10150,7 +10150,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16817,7 +16817,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -28634,7 +28634,7 @@
       </c>
       <c r="G1073" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43298,7 +43298,7 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44026,7 +44026,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44974,7 +44974,7 @@
       </c>
       <c r="G1721" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46678,7 +46678,7 @@
       </c>
       <c r="G1785" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46873,7 +46873,7 @@
       </c>
       <c r="G1792" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47068,7 +47068,7 @@
       </c>
       <c r="G1799" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -47888,7 +47888,7 @@
       </c>
       <c r="G1831" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48777,7 +48777,7 @@
       </c>
       <c r="G1864" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -48951,7 +48951,7 @@
       </c>
       <c r="G1870" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
